--- a/raw_files/induced_soil_respiration.xlsx
+++ b/raw_files/induced_soil_respiration.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raquel.correa\Desktop\R\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ignacio.romero\ownCloud - Romero Ignacio@owncloud.fibl.org\exchange_iro_nbo_vgf\iro\banana_microbiome\raw_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85F0C44-0A10-473E-B2BB-5B172BCFBF77}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCAD3796-FBA6-4EA8-BC8A-70701018B8B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{5C45A254-9B0D-442C-AB4B-1ADB2AAD74B7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6936" xr2:uid="{5C45A254-9B0D-442C-AB4B-1ADB2AAD74B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -442,30 +442,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{032B8C62-78F0-4FA6-8D7F-F4A6D503F30E}">
-  <dimension ref="A2:D115"/>
+  <dimension ref="A1:D114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="E115" sqref="E115"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.81640625" customWidth="1"/>
-    <col min="3" max="3" width="12.08984375" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>83.430913348946135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -473,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>83.430913348946135</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>100.19083969465649</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -484,21 +495,21 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>100.19083969465649</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>110.01275510204081</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>110.01275510204081</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>70.093457943925245</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -506,10 +517,10 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>70.093457943925245</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>90.799031476997584</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -517,21 +528,21 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>90.799031476997584</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>81.917475728155367</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8">
-        <v>81.917475728155367</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+        <v>128.67647058823536</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -539,10 +550,10 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>128.67647058823536</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+        <v>229.1147132169576</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -550,21 +561,21 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>229.1147132169576</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+        <v>244.3609022556391</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11">
-        <v>244.3609022556391</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+        <v>128.67647058823536</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -572,10 +583,10 @@
         <v>13</v>
       </c>
       <c r="C12">
-        <v>128.67647058823536</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+        <v>225.60160427807489</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -583,21 +594,21 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>225.60160427807489</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+        <v>197.11538461538461</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C14">
-        <v>197.11538461538461</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+        <v>81.325301204819311</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -605,10 +616,10 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>81.325301204819311</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+        <v>69.27339901477832</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -616,21 +627,21 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>69.27339901477832</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+        <v>105.76923076923072</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C17">
-        <v>105.76923076923072</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+        <v>119.04761904761905</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -638,10 +649,10 @@
         <v>2</v>
       </c>
       <c r="C18">
-        <v>119.04761904761905</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+        <v>134.96143958868899</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -649,21 +660,21 @@
         <v>2</v>
       </c>
       <c r="C19">
-        <v>134.96143958868899</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+        <v>116.27906976744185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C20">
-        <v>116.27906976744185</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+        <v>47.74305555555555</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -671,10 +682,10 @@
         <v>15</v>
       </c>
       <c r="C21">
-        <v>47.74305555555555</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+        <v>97.517730496453908</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -682,32 +693,32 @@
         <v>15</v>
       </c>
       <c r="C22">
-        <v>97.517730496453908</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23">
         <v>72.639225181598064</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>27.846534653465348</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -715,10 +726,10 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>27.846534653465348</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+        <v>36.764705882352942</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -726,21 +737,21 @@
         <v>1</v>
       </c>
       <c r="C27">
-        <v>36.764705882352942</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+        <v>46.182266009852214</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C28">
-        <v>46.182266009852214</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+        <v>37.037037037037038</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -748,10 +759,10 @@
         <v>11</v>
       </c>
       <c r="C29">
-        <v>37.037037037037038</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+        <v>44.856459330143544</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -759,21 +770,21 @@
         <v>11</v>
       </c>
       <c r="C30">
-        <v>44.856459330143544</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+        <v>36.585365853658537</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C31">
-        <v>36.585365853658537</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+        <v>186.0313315926893</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -781,10 +792,10 @@
         <v>12</v>
       </c>
       <c r="C32">
-        <v>186.0313315926893</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+        <v>208.86075949367088</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -792,21 +803,21 @@
         <v>12</v>
       </c>
       <c r="C33">
-        <v>208.86075949367088</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+        <v>255.03778337531483</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C34">
-        <v>255.03778337531483</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+        <v>186.0313315926893</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -814,10 +825,10 @@
         <v>13</v>
       </c>
       <c r="C35">
-        <v>186.0313315926893</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+        <v>181.29770992366414</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -825,21 +836,21 @@
         <v>13</v>
       </c>
       <c r="C36">
-        <v>181.29770992366414</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+        <v>170.45454545454544</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C37">
-        <v>170.45454545454544</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+        <v>56.25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -847,10 +858,10 @@
         <v>14</v>
       </c>
       <c r="C38">
-        <v>56.25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+        <v>66.793893129770993</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -858,21 +869,21 @@
         <v>14</v>
       </c>
       <c r="C39">
-        <v>66.793893129770993</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+        <v>74.441687344913163</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C40">
-        <v>74.441687344913163</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+        <v>92.821782178217831</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -880,10 +891,10 @@
         <v>2</v>
       </c>
       <c r="C41">
-        <v>92.821782178217831</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+        <v>85.65989847715737</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -891,21 +902,21 @@
         <v>2</v>
       </c>
       <c r="C42">
-        <v>85.65989847715737</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+        <v>76.530612244897952</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C43">
-        <v>76.530612244897952</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+        <v>96.899224806201545</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -913,10 +924,10 @@
         <v>15</v>
       </c>
       <c r="C44">
-        <v>96.899224806201545</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+        <v>164.72868217054261</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -924,33 +935,33 @@
         <v>15</v>
       </c>
       <c r="C45">
-        <v>164.72868217054261</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>7</v>
-      </c>
-      <c r="B46" t="s">
-        <v>15</v>
-      </c>
-      <c r="C46">
         <v>163.04347826086956</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>62.5</v>
       </c>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>9</v>
       </c>
@@ -958,10 +969,10 @@
         <v>1</v>
       </c>
       <c r="C49">
-        <v>62.5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+        <v>71.942446043165461</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -969,21 +980,21 @@
         <v>1</v>
       </c>
       <c r="C50">
-        <v>71.942446043165461</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+        <v>122.28260869565217</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C51">
-        <v>122.28260869565217</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -991,10 +1002,10 @@
         <v>11</v>
       </c>
       <c r="C52">
-        <v>78.125</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+        <v>106.13207547169812</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -1002,21 +1013,21 @@
         <v>11</v>
       </c>
       <c r="C53">
-        <v>106.13207547169812</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+        <v>94.198564593301441</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C54">
-        <v>94.198564593301441</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+        <v>270.52238805970148</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -1024,10 +1035,10 @@
         <v>12</v>
       </c>
       <c r="C55">
-        <v>270.52238805970148</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+        <v>224.63325183374084</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -1035,21 +1046,21 @@
         <v>12</v>
       </c>
       <c r="C56">
-        <v>224.63325183374084</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+        <v>262.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C57">
-        <v>262.5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+        <v>73.349633251833737</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>9</v>
       </c>
@@ -1057,10 +1068,10 @@
         <v>13</v>
       </c>
       <c r="C58">
-        <v>73.349633251833737</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+        <v>108.9588377723971</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>9</v>
       </c>
@@ -1068,21 +1079,21 @@
         <v>13</v>
       </c>
       <c r="C59">
-        <v>108.9588377723971</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+        <v>126.50602409638559</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>9</v>
       </c>
       <c r="B60" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C60">
-        <v>126.50602409638559</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+        <v>101.70990566037736</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>9</v>
       </c>
@@ -1090,10 +1101,10 @@
         <v>14</v>
       </c>
       <c r="C61">
-        <v>101.70990566037736</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+        <v>90.799031476997584</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>9</v>
       </c>
@@ -1101,21 +1112,21 @@
         <v>14</v>
       </c>
       <c r="C62">
-        <v>90.799031476997584</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+        <v>105.69852941176471</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>9</v>
       </c>
       <c r="B63" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C63">
-        <v>105.69852941176471</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+        <v>101.70990566037736</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -1123,10 +1134,10 @@
         <v>2</v>
       </c>
       <c r="C64">
-        <v>101.70990566037736</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+        <v>90.799031476997584</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>9</v>
       </c>
@@ -1134,21 +1145,21 @@
         <v>2</v>
       </c>
       <c r="C65">
-        <v>90.799031476997584</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+        <v>106.63507109004739</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>9</v>
       </c>
       <c r="B66" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C66">
-        <v>106.63507109004739</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+        <v>133.92857142857147</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -1156,10 +1167,10 @@
         <v>15</v>
       </c>
       <c r="C67">
-        <v>133.92857142857147</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+        <v>112.59791122715406</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>9</v>
       </c>
@@ -1167,38 +1178,38 @@
         <v>15</v>
       </c>
       <c r="C68">
-        <v>112.59791122715406</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>9</v>
-      </c>
+        <v>133.57519788918205</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
-        <v>15</v>
-      </c>
-      <c r="C69">
-        <v>133.57519788918205</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>5</v>
+      </c>
       <c r="B70" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="C70" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B71" t="s">
-        <v>3</v>
-      </c>
-      <c r="C71" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>46.410891089108915</v>
       </c>
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>8</v>
       </c>
@@ -1206,10 +1217,10 @@
         <v>1</v>
       </c>
       <c r="C72">
-        <v>46.410891089108915</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+        <v>41.769801980198018</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>8</v>
       </c>
@@ -1217,21 +1228,21 @@
         <v>1</v>
       </c>
       <c r="C73">
-        <v>41.769801980198018</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+        <v>13.957816377171216</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C74">
-        <v>13.957816377171216</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+        <v>50.925925925925924</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -1239,10 +1250,10 @@
         <v>11</v>
       </c>
       <c r="C75">
-        <v>50.925925925925924</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+        <v>27.372262773722628</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -1250,21 +1261,21 @@
         <v>11</v>
       </c>
       <c r="C76">
-        <v>27.372262773722628</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+        <v>40.46762589928057</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>8</v>
       </c>
       <c r="B77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C77">
-        <v>40.46762589928057</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+        <v>205.8472553699284</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>8</v>
       </c>
@@ -1272,10 +1283,10 @@
         <v>12</v>
       </c>
       <c r="C78">
-        <v>205.8472553699284</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+        <v>139.86013986013987</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>8</v>
       </c>
@@ -1283,21 +1294,21 @@
         <v>12</v>
       </c>
       <c r="C79">
-        <v>139.86013986013987</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+        <v>173.61111111111109</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>8</v>
       </c>
       <c r="B80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C80">
-        <v>173.61111111111109</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+        <v>51.178660049627794</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>8</v>
       </c>
@@ -1305,10 +1316,10 @@
         <v>13</v>
       </c>
       <c r="C81">
-        <v>51.178660049627794</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+        <v>143.54066985645935</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>8</v>
       </c>
@@ -1316,21 +1327,21 @@
         <v>13</v>
       </c>
       <c r="C82">
-        <v>143.54066985645935</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+        <v>116.90647482014387</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>8</v>
       </c>
       <c r="B83" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C83">
-        <v>116.90647482014387</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+        <v>79.094292803970234</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>8</v>
       </c>
@@ -1338,10 +1349,10 @@
         <v>14</v>
       </c>
       <c r="C84">
-        <v>79.094292803970234</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+        <v>85.443037974683548</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>8</v>
       </c>
@@ -1349,21 +1360,21 @@
         <v>14</v>
       </c>
       <c r="C85">
-        <v>85.443037974683548</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+        <v>85.65989847715737</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>8</v>
       </c>
       <c r="B86" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C86">
-        <v>85.65989847715737</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+        <v>79.094292803970234</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>8</v>
       </c>
@@ -1371,10 +1382,10 @@
         <v>2</v>
       </c>
       <c r="C87">
-        <v>79.094292803970234</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+        <v>85.443037974683548</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>8</v>
       </c>
@@ -1382,21 +1393,21 @@
         <v>2</v>
       </c>
       <c r="C88">
-        <v>85.443037974683548</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+        <v>108.0827067669173</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>8</v>
       </c>
       <c r="B89" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C89">
-        <v>108.0827067669173</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+        <v>178.34190231362467</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>8</v>
       </c>
@@ -1404,10 +1415,10 @@
         <v>15</v>
       </c>
       <c r="C90">
-        <v>178.34190231362467</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+        <v>100.70332480818414</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>8</v>
       </c>
@@ -1415,32 +1426,32 @@
         <v>15</v>
       </c>
       <c r="C91">
-        <v>100.70332480818414</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
-        <v>8</v>
-      </c>
-      <c r="B92" t="s">
-        <v>15</v>
-      </c>
-      <c r="C92">
         <v>155.1094890510949</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" t="s">
+        <v>3</v>
+      </c>
+      <c r="C93" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B94" t="s">
-        <v>3</v>
-      </c>
-      <c r="C94" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="C94">
+        <v>45.630530973451322</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>10</v>
       </c>
@@ -1448,10 +1459,10 @@
         <v>1</v>
       </c>
       <c r="C95">
-        <v>45.630530973451322</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+        <v>78.855140186915889</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>10</v>
       </c>
@@ -1459,21 +1470,21 @@
         <v>1</v>
       </c>
       <c r="C96">
-        <v>78.855140186915889</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+        <v>78.469162995594715</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>10</v>
       </c>
       <c r="B97" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C97">
-        <v>78.469162995594715</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+        <v>78.991130820399107</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>10</v>
       </c>
@@ -1481,10 +1492,10 @@
         <v>11</v>
       </c>
       <c r="C98">
-        <v>78.991130820399107</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+        <v>79.617834394904492</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>10</v>
       </c>
@@ -1492,21 +1503,21 @@
         <v>11</v>
       </c>
       <c r="C99">
-        <v>79.617834394904492</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+        <v>64.953810623556592</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>10</v>
       </c>
       <c r="B100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C100">
-        <v>64.953810623556592</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+        <v>96.692825112107627</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>10</v>
       </c>
@@ -1514,10 +1525,10 @@
         <v>12</v>
       </c>
       <c r="C101">
-        <v>96.692825112107627</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+        <v>81.335616438356169</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>10</v>
       </c>
@@ -1525,21 +1536,21 @@
         <v>12</v>
       </c>
       <c r="C102">
-        <v>81.335616438356169</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+        <v>114.79591836734693</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>10</v>
       </c>
       <c r="B103" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C103">
-        <v>114.79591836734693</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+        <v>133.92857142857144</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>10</v>
       </c>
@@ -1547,10 +1558,10 @@
         <v>13</v>
       </c>
       <c r="C104">
-        <v>133.92857142857144</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+        <v>114.27765237020317</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>10</v>
       </c>
@@ -1558,21 +1569,21 @@
         <v>13</v>
       </c>
       <c r="C105">
-        <v>114.27765237020317</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+        <v>142.89838337182448</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>10</v>
       </c>
       <c r="B106" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C106">
-        <v>142.89838337182448</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+        <v>94.827586206896555</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>10</v>
       </c>
@@ -1580,10 +1591,10 @@
         <v>14</v>
       </c>
       <c r="C107">
-        <v>94.827586206896555</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+        <v>119.96445497630332</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>10</v>
       </c>
@@ -1591,21 +1602,21 @@
         <v>14</v>
       </c>
       <c r="C108">
-        <v>119.96445497630332</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+        <v>131.11888111888112</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>10</v>
       </c>
       <c r="B109" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C109">
-        <v>131.11888111888112</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+        <v>94.827586206896555</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>10</v>
       </c>
@@ -1613,10 +1624,10 @@
         <v>2</v>
       </c>
       <c r="C110">
-        <v>94.827586206896555</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+        <v>119.96445497630332</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>10</v>
       </c>
@@ -1624,21 +1635,21 @@
         <v>2</v>
       </c>
       <c r="C111">
-        <v>119.96445497630332</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+        <v>141.59038901601829</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>10</v>
       </c>
       <c r="B112" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C112">
-        <v>141.59038901601829</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+        <v>183.74164810690425</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>10</v>
       </c>
@@ -1646,10 +1657,10 @@
         <v>15</v>
       </c>
       <c r="C113">
-        <v>183.74164810690425</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+        <v>140.30612244897958</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>10</v>
       </c>
@@ -1657,17 +1668,6 @@
         <v>15</v>
       </c>
       <c r="C114">
-        <v>140.30612244897958</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
-        <v>10</v>
-      </c>
-      <c r="B115" t="s">
-        <v>15</v>
-      </c>
-      <c r="C115">
         <v>123.02036199095022</v>
       </c>
     </row>
